--- a/data/georgia_census/shida-qartli/gori/average_wages.xlsx
+++ b/data/georgia_census/shida-qartli/gori/average_wages.xlsx
@@ -1107,13 +1107,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD54444E-51A5-4C45-A5BE-8E07DCD3755E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2280C57-2F3B-4230-BBBF-86E9A85EB718}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6563BE7B-93E6-488C-8503-1D5C021251A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19F442FA-0463-4C9B-945E-1E9343E25358}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F66C0B5-2B44-4360-8F0C-E04DF796242F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8CA2027-80F8-425F-AC3C-E67268251841}"/>
 </file>